--- a/Domande_quiz.xlsx
+++ b/Domande_quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93da4f67023e176/Andrea/Cipsmas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{FB93AC3F-1698-4B09-9B08-71FE8A650589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E720B31F-3A18-40AD-87D9-9A9D6B7A0E90}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{FB93AC3F-1698-4B09-9B08-71FE8A650589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BBB2AFD-C951-4C76-A388-E4BD94FA8A48}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="17952" windowHeight="12336" xr2:uid="{5D8CE758-1A48-48EF-81C6-F75DF4345BA3}"/>
+    <workbookView xWindow="4116" yWindow="2496" windowWidth="17280" windowHeight="8964" xr2:uid="{5D8CE758-1A48-48EF-81C6-F75DF4345BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Appozzamento di terra</t>
   </si>
   <si>
-    <t>Come si chiama il posto per mangiare ma resti triste?</t>
-  </si>
-  <si>
     <t>Tristorante</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Ansia</t>
   </si>
   <si>
-    <t>Uno, due, tre….(ELODIE)</t>
-  </si>
-  <si>
     <t>Cos'è una piccola orata?</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>RISPOSTA 3</t>
+  </si>
+  <si>
+    <t>Come si chiama il posto per mangiare dove resti triste?</t>
+  </si>
+  <si>
+    <t>🎶  Uno, due, tre….🎶</t>
   </si>
 </sst>
 </file>
@@ -244,6 +244,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADB649B-DE51-4ECD-A7F5-CA7E75BE7F8F}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -620,141 +624,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
